--- a/Civilworks cost/Expenditure Preparations/output.xlsx
+++ b/Civilworks cost/Expenditure Preparations/output.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Expenditure Preparations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <sheet name="monthly_gob" sheetId="7" r:id="rId7"/>
     <sheet name="monthly_rpa" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -668,7 +673,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -832,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,7 +872,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -12088,14 +12093,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="14" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" customWidth="1"/>
     <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
